--- a/contentData.xlsx
+++ b/contentData.xlsx
@@ -434,14 +434,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3කට කඩා මගේ බැනුම් අහන තැනක් තමයි ශ්‍රී ලංකා ක්‍රිකට් තේරීම් කමිටුව කියන්නේ තේරීම් කමිටු සභාපති වරයා තනතුරින් ඉවත් වෙලා තිබුණා එළඹෙන පොදු සංචාරය ඉලක්ක කරලා ඔහු නම් කළ තවමත් අනුමැතියක් නොලැබුණු තිස් පස් දෙනෙක් වියතුන් සංචිතයෙන් පසුගිය දේශීය පළමු ප්‍රවාදය වැඩිම ලකුණුලාභියා විදිහට ඉස්සරහම හිටපු ලහිරු උදාර කැපිලා කියලා තමයි ආරංචි වෙන විදියට මේ තිස් පස් දෙනා අතරට කඩුලු රකින පිතිකරුවන් කිහිප දෙනෙක් ඇතුළත් වුණත් ලහිරු හේතුවක් නැතුව අවස්ථාවක් දෙන්නේ නැතුව කැපීගිය ක නම් පුදුමයට කරුණක් බංග්ලාදේශ කණ්ඩායම එක තරගාවලියට නම් කළ පුහුණු සංචිතය හිටපු උදාර දකුණු සංචාරයෙන් කැපිලා ගියේ ඔහුට වඩා ලහිරු තිරිමාන්න සංචාරයට වැදගත් වෙයි කියන තේරීම් කමිටුවේ අදහසත් එක්ක ඒ තරම් ඉන්පස්සෙ ග්‍රන්ථයක තරගාවලිය උදාර සුදුස්සෙක් වුණේ නැහැ ආබාධ සුව වීමත් එක්ක කණ්ඩායමට පැමිණීමත් දිරිමත් ආරම්භ ප්‍රතිකාර විදියට යොදා ගැනීමත් එක්ක ලහිරු ශ්‍රී ලංකා කණ්ඩායමට සෙල්ලම් කරන්න එක් වුණේ නැහැ අවසන් දුන් දේශීය පල පෙළ තරගාවලියේ ලකුණු 1039 ලබාගත ලහිරු 87 ක සාමාන්‍යයක් වගේම 87 ප්‍රහාරක වේගයක් එක්ක ශබ්ද තුනකුත් අර්ධ ශතක 6 කුත් එක්ක ලකුණු ලබාගත් ක්‍රීඩකයින් තරගකාරී ම ලකුණු 290 නිකුත් ඔහුට මින් සටහන් වෙලා තියෙනවා සමාන්‍යෙන් දිගින් දිගටම අසාර්ථක වෙලත් සමහර ක්‍රීඩකයන්ට දිගින් දිගටම අවස්ථා බීල කණ්ඩායම සංචිතවල වැඩකරන් තියාගෙන ඉන්න කියලා චෝදනා එල්ල තේරීම් කමිටුව මෙම ගිලන් වූ අතර ඉන්න දක්ෂතා බල උපරිම ඉන්න අවස්ථාවක හේතුවක් නැතුව ක්‍රීඩකයන් සංචිත වලින් නොසලකා හැරීම නම් ඒ ක්‍රීඩකයන්ගේ අනාගතයට හොඳ වෙන එකක් නැහැ ගිහිල්ලා බලන්න ඔබ තවමත් අපි channel එක subscribe කරලා නැත්නම් දැන්ම subscribe කරන්නත් කැමති විකිපීඩියා කරන්න එපා ප්‍රගති ගේ නම් දෙස් අපිට තවත් හමුවන තෙක් ලංකාවේ දීලා ඔයාට සුභ දවසක්</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
     </row>

--- a/contentData.xlsx
+++ b/contentData.xlsx
@@ -434,10 +434,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> අකුරු අයිෆෝන් එකෙ එකිනෙක ඇප් වලට password දාල lock කරන්න පුළුවන් ගෙල වල දැනගෙන හිටියත් athula building මේ පහසුකම දීලා නැහැ නමුත් අපි අද වෙන්න පේජ් එකක් පාවිච්චි කරලා වගේ ඇයි ෆෝන් එකේ තියෙන වෙන කාටවත් බලන්න බැරි වෙන්න password දාල lock කරන්න පමණ ගැන තමයි බලන්න පුළුවන් ගොඩක් කරන්න පුළුවන් පහසුකම තියෙනවා සමහර වෙලාවට අපිට ආණ්ඩුවෙන් වලට apss download කරගෙන අපේ පේනයක් නොකරන්නත් පුලුවන් නමුත් iphone එකට එහෙම ඇප් එකක් තවමත් නෑ ඉතින් ටැංකියක පාවිච්චි කරල අපිට පුළුවන් individual නොකරන්න අයියට කරන්න ඔයාගේ ගැලරි එකේ තියෙන පොටෝස් බලනවට වඩා කැමති වෙන්න පුළුවන් සමහර විට වගේ මිනිස්සු යන එක ෆේස්බුක් එක open කරල බලන්න ඔයා අකමැති වෙන්න පුලුවන් නමුත් ඔයාට කියන්න එකක් නෑනේ ඔයාට පුළුවන් මේකට පාස්පෝට් එකක් දාලා යාලුවට දෙන්න ඒ වගේම ඔයාගේ ගෙදර ඔයාගේ නංගිලා මල්ලිලා ඉන්නවනම් වැඩිහිටියෙක් වගේ phone එක නිතර පාවිච්චි කරනවා නං ඔයාට ඕන ඇප් පාස් kondaal unlock කරගන්න එක තමයි අද මේ කතා කරන්න යන පේජ් එකේ තියෙන ප්‍රධාන වාසිය ගැම්බල් අයිපෝන් එකට ගිහිල්ලා පහලට ගියාම screen time passcode එකක් දෙන්න පුළුවන් ඔයා කැමති පාස්පෝට් එකක් මෙතනට දෙන්න ඕනේ පාස්වර්ඩ් එක වෙන්න බැහැ ඊට පස්සෙ මට පුළුවන් limit කියන එක ඇතුලට යන්න ගිහින් ඔයාට පුලුවන් ඇඩ් limit කියන ඇතුලට ගියාට පස්සේ මට කරන්න ඕන වෙන වෙනම කරන්න ඔයාට ෆොටෝස් බලන්න දෙන්න ඕනේ නැත්තං ඔයාට පුලුවන් ගැලරි කරන්න දෙන්න බැරිනම් මට පුළුවන් ඇත්තෝ එකම එක දෙන්න ඒ වගේම මට instragram අවශ්‍ය අවශ්‍ය එක දෙන්න පුළුවන් හැකියාව තියෙනවා මංගල කිව්ව නෙමේ අපි වෙන feature එකක් තමයි පාසල් ලොක් කරන්න පාවිච්චි කරන්නේ කියලා මේකෙන් ඇත්තටම වෙන්නේ වගේ screen time එක කරන එක ඔයාට පුලුවන් අඩුම මේකේ විනාඩියක් සිලෙක්ට් කරන්න එතකොට මට මේ ඇත්ත දවසකට විනාඩි ලේඛන පුළුවන් password එක නැතුව කොහොමද කියලා එකක් පාවිච්චි කරාට පස්සේ ඕපන් කරපු ගමන් මෙන්න මේ විදිහට මේක meantime දාලා ගෙන මැසේජ් එකක් පෙන්නන්න මට පුළුවන් අන්ලොක් කරන්න ඕනේ නම් මගේ පාස්පෝට් එක ඉල්ලනවා කවුරුහරි පාස්පෝට් එකක් නොදන්න කෙනෙක් මේ app එක open කරගන්න එයාට ඒක පාවිච්චි කරන්න බැහැ මෙලොවට හිතෙනවා අපි වෙන්නෙත් දුන්නෙ කියලා ඒක තමයි train time freak ඉතිං ඔයා එතකොට දවසකට විනාඩි එකට වඩා මේක පාවිච්චි කොට මැටි ගෙන ඒම උනාට පුළුවන් මේක පාවිච්චි කරලා අයිෆෝන් එකෙ තියෙන individual ලොක් කරන්න මැච් කලින් දනගෙන හිටියාද යාළුවන්ට දැනගන්න කැමති නම් අනිවාර්යෙන්ම එක ශෙයා කරන්න මනුෂ්‍යයන්ගේ පල කරන්න සිංහලෙන් ඉගෙනගමු</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2Mth_IJevas</t>
+          <t>2KH65oAKOOo</t>
         </is>
       </c>
     </row>
